--- a/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AEFC006-34B1-4036-A9A0-6D570075973D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3668C58D-7274-44D6-B454-0022A0783E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9CE81A6C-D121-4B0E-9E03-4DC1C56BFAE1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4B0035C-7E07-4D50-B151-A8671C8F9326}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="372">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1105 +77,1084 @@
     <t>1,53%</t>
   </si>
   <si>
-    <t>0,53%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,09%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
   </si>
   <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>88,83%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,48%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>2,75%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
+    <t>9,76%</t>
   </si>
   <si>
     <t>10,01%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
   </si>
   <si>
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,1%</t>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
   </si>
   <si>
     <t>3,73%</t>
   </si>
   <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
     <t>8,14%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
   </si>
   <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>10,83%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
+    <t>90,95%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>85,13%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E24AC6-0240-49F4-9984-3BE8E406C315}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7C4D78-EFAB-42B9-8E9B-73010859839C}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1825,7 +1804,7 @@
         <v>521</v>
       </c>
       <c r="I6" s="7">
-        <v>529516</v>
+        <v>529515</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1876,7 +1855,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1998,13 +1977,13 @@
         <v>6582</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2019,13 +1998,13 @@
         <v>83937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -2034,13 +2013,13 @@
         <v>58634</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>141</v>
@@ -2049,13 +2028,13 @@
         <v>142572</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,7 +2090,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2129,7 +2108,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2144,7 +2123,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2159,7 +2138,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,7 +2159,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2195,7 +2174,7 @@
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2210,7 +2189,7 @@
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2225,10 +2204,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2240,10 +2219,10 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2255,10 +2234,10 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2329,13 +2308,13 @@
         <v>5692</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2344,7 +2323,7 @@
         <v>21556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>76</v>
@@ -2542,7 +2521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC0E3C13-A117-47C7-B439-D8991841F379}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B7C33-43F1-4B72-B569-57A1A673758E}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2684,10 +2663,10 @@
         <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2696,13 +2675,13 @@
         <v>48371</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2717,13 +2696,13 @@
         <v>41846</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2732,13 +2711,13 @@
         <v>66635</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -2747,13 +2726,13 @@
         <v>108481</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2768,13 +2747,13 @@
         <v>365239</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="G6" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -2783,13 +2762,13 @@
         <v>526853</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>835</v>
@@ -2798,13 +2777,13 @@
         <v>892091</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2872,13 +2851,13 @@
         <v>2027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2887,13 +2866,13 @@
         <v>3387</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2902,13 +2881,13 @@
         <v>5414</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2923,13 +2902,13 @@
         <v>3241</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2938,13 +2917,13 @@
         <v>3978</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2953,13 +2932,13 @@
         <v>7219</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,13 +2953,13 @@
         <v>113397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -2989,13 +2968,13 @@
         <v>75709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -3004,13 +2983,13 @@
         <v>189106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3066,7 +3045,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3084,7 +3063,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3093,13 +3072,13 @@
         <v>1162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3108,13 +3087,13 @@
         <v>1162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3135,7 +3114,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3144,13 +3123,13 @@
         <v>2161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3159,13 +3138,13 @@
         <v>2161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>88</v>
+        <v>156</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3180,10 +3159,10 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3195,13 +3174,13 @@
         <v>18922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3210,13 +3189,13 @@
         <v>45497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3263,13 @@
         <v>9340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3299,13 +3278,13 @@
         <v>45607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3314,13 +3293,13 @@
         <v>54947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3314,13 @@
         <v>45087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -3350,13 +3329,13 @@
         <v>72774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -3365,13 +3344,13 @@
         <v>117861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3365,13 @@
         <v>505210</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -3401,13 +3380,13 @@
         <v>621484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -3416,13 +3395,13 @@
         <v>1126694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3497,7 +3476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5117993D-6659-4693-A114-4CCCCC7AE527}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2E928-3FBA-496C-9A3F-B8342DCD20C9}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3514,7 +3493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3621,13 +3600,13 @@
         <v>7951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>196</v>
+        <v>133</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3636,13 +3615,13 @@
         <v>30291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3651,13 +3630,13 @@
         <v>38242</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3672,13 +3651,13 @@
         <v>32059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3687,13 +3666,13 @@
         <v>64227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M5" s="7">
         <v>89</v>
@@ -3702,13 +3681,13 @@
         <v>96286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,16 +3699,16 @@
         <v>341</v>
       </c>
       <c r="D6" s="7">
-        <v>313892</v>
+        <v>313891</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -3738,13 +3717,13 @@
         <v>460239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
@@ -3753,13 +3732,13 @@
         <v>774130</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>35</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +3750,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3827,13 +3806,13 @@
         <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3842,13 +3821,13 @@
         <v>4183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3857,13 +3836,13 @@
         <v>5075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>222</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3857,13 @@
         <v>7199</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>168</v>
+        <v>225</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>89</v>
+        <v>226</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3893,13 +3872,13 @@
         <v>9757</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -3908,13 +3887,13 @@
         <v>16956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>232</v>
+        <v>166</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,13 +3908,13 @@
         <v>184441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -3944,13 +3923,13 @@
         <v>174134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>332</v>
@@ -3959,13 +3938,13 @@
         <v>358574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,7 +4000,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4039,7 +4018,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>105</v>
+        <v>241</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4054,7 +4033,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4069,7 +4048,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4063,13 @@
         <v>1787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4099,13 +4078,13 @@
         <v>3671</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>153</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4114,13 +4093,13 @@
         <v>5458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>251</v>
+        <v>45</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,13 +4114,13 @@
         <v>40242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4150,13 +4129,13 @@
         <v>30003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4165,13 +4144,13 @@
         <v>70245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>260</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4239,13 +4218,13 @@
         <v>8843</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4254,13 +4233,13 @@
         <v>34474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>21</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -4269,13 +4248,13 @@
         <v>43317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>267</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4290,13 +4269,13 @@
         <v>41045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4305,13 +4284,13 @@
         <v>77655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4320,13 +4299,13 @@
         <v>118700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4320,13 @@
         <v>538575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>98</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>562</v>
@@ -4356,13 +4335,13 @@
         <v>664376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
@@ -4371,13 +4350,13 @@
         <v>1202951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,7 +4431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6703BE34-CB35-4229-8DE6-1F7D70C1FD45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B8EDE0-474C-4401-BBCF-31035C580B6A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4469,7 +4448,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4576,13 +4555,13 @@
         <v>13111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -4591,13 +4570,13 @@
         <v>39803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>290</v>
+        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -4606,13 +4585,13 @@
         <v>52914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>293</v>
+        <v>16</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4627,13 +4606,13 @@
         <v>26369</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -4642,13 +4621,13 @@
         <v>75949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -4657,13 +4636,13 @@
         <v>102318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4678,13 +4657,13 @@
         <v>247298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>818</v>
@@ -4693,13 +4672,13 @@
         <v>438474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>1183</v>
@@ -4708,13 +4687,13 @@
         <v>685772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4761,13 @@
         <v>4686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4797,13 +4776,13 @@
         <v>4789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4812,13 +4791,13 @@
         <v>9476</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4812,13 @@
         <v>24021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4848,13 +4827,13 @@
         <v>23778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -4863,13 +4842,13 @@
         <v>47799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4863,13 @@
         <v>265859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -4899,13 +4878,13 @@
         <v>357855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
@@ -4914,13 +4893,13 @@
         <v>623713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4955,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4988,13 +4967,13 @@
         <v>760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>14</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5003,13 +4982,13 @@
         <v>735</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -5018,13 +4997,13 @@
         <v>1494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5039,13 +5018,13 @@
         <v>6043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5054,13 +5033,13 @@
         <v>7832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5069,13 +5048,13 @@
         <v>13874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5090,13 +5069,13 @@
         <v>105184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>345</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -5105,13 +5084,13 @@
         <v>69679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>38</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -5123,10 +5102,10 @@
         <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>357</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5194,13 +5173,13 @@
         <v>18557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -5209,13 +5188,13 @@
         <v>45327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -5224,13 +5203,13 @@
         <v>63884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>354</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5245,13 +5224,13 @@
         <v>56433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -5260,28 +5239,28 @@
         <v>107558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>367</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="M17" s="7">
         <v>276</v>
       </c>
       <c r="N17" s="7">
-        <v>163991</v>
+        <v>163992</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>362</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5296,13 +5275,13 @@
         <v>618340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>325</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H18" s="7">
         <v>1428</v>
@@ -5311,28 +5290,28 @@
         <v>866008</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M18" s="7">
         <v>2334</v>
       </c>
       <c r="N18" s="7">
-        <v>1484348</v>
+        <v>1484349</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5374,7 +5353,7 @@
         <v>2719</v>
       </c>
       <c r="N19" s="7">
-        <v>1712223</v>
+        <v>1712224</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3668C58D-7274-44D6-B454-0022A0783E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2297A8-2EA3-4F02-8372-5CEE835AF0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D4B0035C-7E07-4D50-B151-A8671C8F9326}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A23050E-C9F8-40C5-A289-7FF07408995E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="371">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -77,1047 +77,1047 @@
     <t>1,53%</t>
   </si>
   <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
   </si>
   <si>
     <t>89,05%</t>
   </si>
   <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
   </si>
   <si>
     <t>10,56%</t>
   </si>
   <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
     <t>7,46%</t>
   </si>
   <si>
@@ -1125,9 +1125,6 @@
   </si>
   <si>
     <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
   </si>
   <si>
     <t>10,88%</t>
@@ -1566,7 +1563,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7C4D78-EFAB-42B9-8E9B-73010859839C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96459CD-1622-40B7-B37A-1AF6739302E4}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1804,7 +1801,7 @@
         <v>521</v>
       </c>
       <c r="I6" s="7">
-        <v>529515</v>
+        <v>529516</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1855,7 +1852,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587749</v>
+        <v>587750</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1950,10 +1947,10 @@
         <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1962,7 +1959,7 @@
         <v>2436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>42</v>
@@ -2323,13 +2320,13 @@
         <v>21556</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2338,13 +2335,13 @@
         <v>27249</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2359,13 +2356,13 @@
         <v>27753</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -2374,13 +2371,13 @@
         <v>40255</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2389,13 +2386,13 @@
         <v>68008</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2407,13 @@
         <v>469020</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>605</v>
@@ -2425,13 +2422,13 @@
         <v>615031</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>1091</v>
@@ -2440,10 +2437,10 @@
         <v>1084051</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>98</v>
@@ -2521,7 +2518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED0B7C33-43F1-4B72-B569-57A1A673758E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB098FE-6CFA-4802-8766-81F8223C102A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2663,10 +2660,10 @@
         <v>104</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2675,7 +2672,7 @@
         <v>48371</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>107</v>
@@ -2887,7 +2884,7 @@
         <v>133</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2902,13 +2899,13 @@
         <v>3241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2917,13 +2914,13 @@
         <v>3978</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2932,13 +2929,13 @@
         <v>7219</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>139</v>
+        <v>103</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2953,13 +2950,13 @@
         <v>113397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -2968,13 +2965,13 @@
         <v>75709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -2983,13 +2980,13 @@
         <v>189106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,7 +3060,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3072,13 +3069,13 @@
         <v>1162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3087,13 +3084,13 @@
         <v>1162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3114,7 +3111,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>105</v>
+        <v>151</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3123,13 +3120,13 @@
         <v>2161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3138,13 +3135,13 @@
         <v>2161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3162,7 +3159,7 @@
         <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3174,13 +3171,13 @@
         <v>18922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3192,10 +3189,10 @@
         <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3263,13 +3260,13 @@
         <v>9340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3278,13 +3275,13 @@
         <v>45607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3293,13 +3290,13 @@
         <v>54947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3314,13 +3311,13 @@
         <v>45087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -3329,13 +3326,13 @@
         <v>72774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -3344,13 +3341,13 @@
         <v>117861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3365,13 +3362,13 @@
         <v>505210</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -3380,13 +3377,13 @@
         <v>621484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -3395,13 +3392,13 @@
         <v>1126694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,7 +3473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE2E928-3FBA-496C-9A3F-B8342DCD20C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E6DC1-E950-401C-83EE-24E09E7B785B}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3493,7 +3490,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3600,13 +3597,13 @@
         <v>7951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3615,13 +3612,13 @@
         <v>30291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3630,13 +3627,13 @@
         <v>38242</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3648,13 @@
         <v>32059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>199</v>
+        <v>24</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3666,13 +3663,13 @@
         <v>64227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>89</v>
@@ -3681,13 +3678,13 @@
         <v>96286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,16 +3696,16 @@
         <v>341</v>
       </c>
       <c r="D6" s="7">
-        <v>313891</v>
+        <v>313892</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -3717,13 +3714,13 @@
         <v>460239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
@@ -3732,13 +3729,13 @@
         <v>774130</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,7 +3747,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353901</v>
+        <v>353902</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -3806,13 +3803,13 @@
         <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3821,13 +3818,13 @@
         <v>4183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3836,13 +3833,13 @@
         <v>5075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3854,13 @@
         <v>7199</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3872,13 +3869,13 @@
         <v>9757</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M9" s="7">
         <v>17</v>
@@ -3887,13 +3884,13 @@
         <v>16956</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>166</v>
+        <v>232</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3905,13 @@
         <v>184441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H10" s="7">
         <v>144</v>
@@ -3923,13 +3920,13 @@
         <v>174134</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M10" s="7">
         <v>332</v>
@@ -3938,13 +3935,13 @@
         <v>358574</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4018,7 +4015,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4033,7 +4030,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4048,7 +4045,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4060,13 @@
         <v>1787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4078,13 +4075,13 @@
         <v>3671</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>153</v>
+        <v>249</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4093,13 +4090,13 @@
         <v>5458</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,10 +4111,10 @@
         <v>40242</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>69</v>
@@ -4129,13 +4126,13 @@
         <v>30003</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4144,13 +4141,13 @@
         <v>70245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4218,13 +4215,13 @@
         <v>8843</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>258</v>
+        <v>102</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -4233,13 +4230,13 @@
         <v>34474</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -4248,13 +4245,13 @@
         <v>43317</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>78</v>
+        <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4269,13 +4266,13 @@
         <v>41045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4284,13 +4281,13 @@
         <v>77655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4299,13 +4296,13 @@
         <v>118700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>271</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4320,13 +4317,13 @@
         <v>538575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>273</v>
+        <v>149</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
         <v>562</v>
@@ -4335,13 +4332,13 @@
         <v>664376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
@@ -4350,13 +4347,13 @@
         <v>1202951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97B8EDE0-474C-4401-BBCF-31035C580B6A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63717C4-8A50-467F-AB1E-6F25A74E8B30}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4448,7 +4445,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4555,7 +4552,7 @@
         <v>13111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>283</v>
@@ -4570,10 +4567,10 @@
         <v>39803</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>286</v>
@@ -4588,10 +4585,10 @@
         <v>287</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>16</v>
+        <v>288</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4612,7 +4609,7 @@
         <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>291</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -4621,13 +4618,13 @@
         <v>75949</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -4636,13 +4633,13 @@
         <v>102318</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4657,13 +4654,13 @@
         <v>247298</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H6" s="7">
         <v>818</v>
@@ -4672,13 +4669,13 @@
         <v>438474</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M6" s="7">
         <v>1183</v>
@@ -4687,13 +4684,13 @@
         <v>685772</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,13 +4758,13 @@
         <v>4686</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4776,13 +4773,13 @@
         <v>4789</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4791,13 +4788,13 @@
         <v>9476</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4812,13 +4809,13 @@
         <v>24021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>316</v>
+        <v>87</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4827,13 +4824,13 @@
         <v>23778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -4842,13 +4839,13 @@
         <v>47799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4860,13 @@
         <v>265859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -4878,13 +4875,13 @@
         <v>357855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
@@ -4893,13 +4890,13 @@
         <v>623713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>331</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4967,7 +4964,7 @@
         <v>760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>329</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
@@ -4982,13 +4979,13 @@
         <v>735</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4997,13 +4994,13 @@
         <v>1494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5015,13 @@
         <v>6043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5033,13 +5030,13 @@
         <v>7832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5048,13 +5045,13 @@
         <v>13874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,10 +5066,10 @@
         <v>105184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>72</v>
@@ -5084,13 +5081,13 @@
         <v>69679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>38</v>
+        <v>343</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -5099,13 +5096,13 @@
         <v>174862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,10 +5173,10 @@
         <v>132</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -5188,13 +5185,13 @@
         <v>45327</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -5203,13 +5200,13 @@
         <v>63884</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5221,13 @@
         <v>56433</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -5239,7 +5236,7 @@
         <v>107558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>271</v>
+        <v>358</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>359</v>
@@ -5257,10 +5254,10 @@
         <v>361</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5272,13 @@
         <v>618340</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H18" s="7">
         <v>1428</v>
@@ -5290,13 +5287,13 @@
         <v>866008</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M18" s="7">
         <v>2334</v>
@@ -5305,13 +5302,13 @@
         <v>1484349</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B2297A8-2EA3-4F02-8372-5CEE835AF0BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C0013D-AD37-40C9-A763-9E91B1F34945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1A23050E-C9F8-40C5-A289-7FF07408995E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{971BA7CB-D90C-4A70-9520-8A431B687966}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="379">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -80,1078 +80,1102 @@
     <t>0,53%</t>
   </si>
   <si>
-    <t>3,23%</t>
+    <t>3,25%</t>
   </si>
   <si>
     <t>3,47%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>1,85%</t>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>Pocas veces</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>88,83%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
   </si>
   <si>
     <t>3,92%</t>
   </si>
   <si>
-    <t>Pocas veces</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
   </si>
   <si>
     <t>4,61%</t>
   </si>
   <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>89,58%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>85,06%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>78,94%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>79,04%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>83,5%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>80,99%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>82,96%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>88,0%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>80,17%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
     <t>9,58%</t>
   </si>
   <si>
-    <t>10,88%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>89,18%</t>
   </si>
   <si>
-    <t>90,95%</t>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
   </si>
   <si>
     <t>86,69%</t>
   </si>
   <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
+    <t>85,13%</t>
   </si>
 </sst>
 </file>
@@ -1563,7 +1587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96459CD-1622-40B7-B37A-1AF6739302E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9B46C1-A9DE-426D-8C43-2367D378786F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1947,10 +1971,10 @@
         <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -1959,7 +1983,7 @@
         <v>2436</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>42</v>
@@ -1974,13 +1998,13 @@
         <v>6582</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1995,13 +2019,13 @@
         <v>83937</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="H10" s="7">
         <v>57</v>
@@ -2010,13 +2034,13 @@
         <v>58634</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="M10" s="7">
         <v>141</v>
@@ -2025,13 +2049,13 @@
         <v>142572</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,7 +2111,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2105,7 +2129,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2120,7 +2144,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2135,7 +2159,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,7 +2180,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2171,7 +2195,7 @@
         <v>43</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
         <v>0</v>
@@ -2186,7 +2210,7 @@
         <v>43</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2201,10 +2225,10 @@
         <v>41194</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -2216,10 +2240,10 @@
         <v>26881</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>40</v>
@@ -2231,10 +2255,10 @@
         <v>68075</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>40</v>
@@ -2305,13 +2329,13 @@
         <v>5692</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -2320,13 +2344,13 @@
         <v>21556</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M16" s="7">
         <v>25</v>
@@ -2335,13 +2359,13 @@
         <v>27249</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2356,13 +2380,13 @@
         <v>27753</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="H17" s="7">
         <v>37</v>
@@ -2371,13 +2395,13 @@
         <v>40255</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="M17" s="7">
         <v>68</v>
@@ -2386,13 +2410,13 @@
         <v>68008</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2407,13 +2431,13 @@
         <v>469020</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H18" s="7">
         <v>605</v>
@@ -2422,13 +2446,13 @@
         <v>615031</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M18" s="7">
         <v>1091</v>
@@ -2437,10 +2461,10 @@
         <v>1084051</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>98</v>
@@ -2518,7 +2542,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB098FE-6CFA-4802-8766-81F8223C102A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D216E64D-93DC-4662-8418-87407892D571}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2672,13 +2696,13 @@
         <v>48371</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,13 +2717,13 @@
         <v>41846</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2708,13 +2732,13 @@
         <v>66635</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M5" s="7">
         <v>95</v>
@@ -2723,13 +2747,13 @@
         <v>108481</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2744,13 +2768,13 @@
         <v>365239</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H6" s="7">
         <v>497</v>
@@ -2759,13 +2783,13 @@
         <v>526853</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M6" s="7">
         <v>835</v>
@@ -2774,13 +2798,13 @@
         <v>892091</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,13 +2872,13 @@
         <v>2027</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -2863,13 +2887,13 @@
         <v>3387</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -2878,13 +2902,13 @@
         <v>5414</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2899,13 +2923,13 @@
         <v>3241</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2914,13 +2938,13 @@
         <v>3978</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M9" s="7">
         <v>7</v>
@@ -2929,13 +2953,13 @@
         <v>7219</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2950,13 +2974,13 @@
         <v>113397</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -2965,13 +2989,13 @@
         <v>75709</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M10" s="7">
         <v>170</v>
@@ -2980,13 +3004,13 @@
         <v>189106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3042,7 +3066,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3060,7 +3084,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3069,13 +3093,13 @@
         <v>1162</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3084,13 +3108,13 @@
         <v>1162</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3111,7 +3135,7 @@
         <v>43</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3120,13 +3144,13 @@
         <v>2161</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>2</v>
@@ -3135,13 +3159,13 @@
         <v>2161</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3156,10 +3180,10 @@
         <v>26575</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>40</v>
@@ -3171,13 +3195,13 @@
         <v>18922</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="M14" s="7">
         <v>36</v>
@@ -3186,13 +3210,13 @@
         <v>45497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3260,13 +3284,13 @@
         <v>9340</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H16" s="7">
         <v>41</v>
@@ -3275,13 +3299,13 @@
         <v>45607</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="M16" s="7">
         <v>50</v>
@@ -3290,13 +3314,13 @@
         <v>54947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3311,13 +3335,13 @@
         <v>45087</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H17" s="7">
         <v>68</v>
@@ -3326,13 +3350,13 @@
         <v>72774</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>178</v>
+        <v>83</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M17" s="7">
         <v>104</v>
@@ -3341,13 +3365,13 @@
         <v>117861</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,13 +3386,13 @@
         <v>505210</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H18" s="7">
         <v>582</v>
@@ -3377,13 +3401,13 @@
         <v>621484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>1041</v>
@@ -3392,13 +3416,13 @@
         <v>1126694</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C00E6DC1-E950-401C-83EE-24E09E7B785B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4F9C6A-1313-4555-B95B-9C8DD0D9EC1F}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3490,7 +3514,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3597,13 +3621,13 @@
         <v>7951</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
         <v>23</v>
@@ -3612,13 +3636,13 @@
         <v>30291</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -3627,13 +3651,13 @@
         <v>38242</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,13 +3672,13 @@
         <v>32059</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
         <v>53</v>
@@ -3663,13 +3687,13 @@
         <v>64227</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
         <v>89</v>
@@ -3678,13 +3702,13 @@
         <v>96286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3723,13 @@
         <v>313892</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H6" s="7">
         <v>395</v>
@@ -3714,13 +3738,13 @@
         <v>460239</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M6" s="7">
         <v>736</v>
@@ -3729,13 +3753,13 @@
         <v>774130</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>217</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3803,13 +3827,13 @@
         <v>892</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3818,13 +3842,13 @@
         <v>4183</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3833,13 +3857,13 @@
         <v>5075</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>224</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3878,13 @@
         <v>7199</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>228</v>
+        <v>89</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3997,7 +4021,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4015,7 +4039,7 @@
         <v>43</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>244</v>
+        <v>105</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4030,7 +4054,7 @@
         <v>43</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -4045,7 +4069,7 @@
         <v>43</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4060,13 +4084,13 @@
         <v>1787</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -4075,13 +4099,13 @@
         <v>3671</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -4090,13 +4114,13 @@
         <v>5458</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4111,13 +4135,13 @@
         <v>40242</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>255</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H14" s="7">
         <v>23</v>
@@ -4126,13 +4150,13 @@
         <v>30003</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M14" s="7">
         <v>63</v>
@@ -4141,7 +4165,7 @@
         <v>70245</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>185</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>259</v>
@@ -4233,10 +4257,10 @@
         <v>263</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>264</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>264</v>
+        <v>21</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -4251,7 +4275,7 @@
         <v>266</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,13 +4290,13 @@
         <v>41045</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>268</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" s="7">
         <v>65</v>
@@ -4281,13 +4305,13 @@
         <v>77655</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4296,13 +4320,13 @@
         <v>118700</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>51</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,13 +4341,13 @@
         <v>538575</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>98</v>
       </c>
       <c r="H18" s="7">
         <v>562</v>
@@ -4332,13 +4356,13 @@
         <v>664376</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M18" s="7">
         <v>1131</v>
@@ -4347,13 +4371,13 @@
         <v>1202951</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4428,7 +4452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F63717C4-8A50-467F-AB1E-6F25A74E8B30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A55F791-23CB-4B20-BB42-20DB93925106}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4445,7 +4469,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4552,13 +4576,13 @@
         <v>13111</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
         <v>68</v>
@@ -4567,13 +4591,13 @@
         <v>39803</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>91</v>
@@ -4582,13 +4606,13 @@
         <v>52914</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4603,13 +4627,13 @@
         <v>26369</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>117</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
@@ -4618,13 +4642,13 @@
         <v>75949</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
@@ -4633,13 +4657,13 @@
         <v>102318</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>294</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>295</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4654,13 +4678,13 @@
         <v>247298</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>818</v>
@@ -4669,13 +4693,13 @@
         <v>438474</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>1183</v>
@@ -4684,13 +4708,13 @@
         <v>685772</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4758,13 +4782,13 @@
         <v>4686</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4773,13 +4797,13 @@
         <v>4789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
@@ -4788,13 +4812,13 @@
         <v>9476</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4809,13 +4833,13 @@
         <v>24021</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>87</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -4824,13 +4848,13 @@
         <v>23778</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
@@ -4839,13 +4863,13 @@
         <v>47799</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>83</v>
+        <v>327</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4860,13 +4884,13 @@
         <v>265859</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
@@ -4875,13 +4899,13 @@
         <v>357855</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
@@ -4890,13 +4914,13 @@
         <v>623713</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>32</v>
+        <v>336</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,7 +4976,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4964,13 +4988,13 @@
         <v>760</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4979,13 +5003,13 @@
         <v>735</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>158</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -4994,13 +5018,13 @@
         <v>1494</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>331</v>
+        <v>169</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5015,13 +5039,13 @@
         <v>6043</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -5030,13 +5054,13 @@
         <v>7832</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>337</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
@@ -5045,13 +5069,13 @@
         <v>13874</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>339</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5066,13 +5090,13 @@
         <v>105184</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>341</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>342</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
@@ -5081,13 +5105,13 @@
         <v>69679</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
@@ -5096,13 +5120,13 @@
         <v>174862</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5170,13 +5194,13 @@
         <v>18557</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>359</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H16" s="7">
         <v>78</v>
@@ -5185,13 +5209,13 @@
         <v>45327</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
@@ -5200,13 +5224,13 @@
         <v>63884</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>353</v>
+        <v>262</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>354</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5221,13 +5245,13 @@
         <v>56433</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="H17" s="7">
         <v>192</v>
@@ -5236,28 +5260,28 @@
         <v>107558</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>276</v>
       </c>
       <c r="N17" s="7">
-        <v>163992</v>
+        <v>163991</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5272,13 +5296,13 @@
         <v>618340</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>322</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>1428</v>
@@ -5287,28 +5311,28 @@
         <v>866008</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>2334</v>
       </c>
       <c r="N18" s="7">
-        <v>1484349</v>
+        <v>1484348</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>370</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,7 +5374,7 @@
         <v>2719</v>
       </c>
       <c r="N19" s="7">
-        <v>1712224</v>
+        <v>1712223</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>

--- a/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q5409-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20C0013D-AD37-40C9-A763-9E91B1F34945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45F2D5A7-1303-44BB-BFEE-44C963231B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{971BA7CB-D90C-4A70-9520-8A431B687966}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{83FA43E2-B9EC-466B-BC26-317AABFF3B73}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="382">
   <si>
     <t>Población según si se le escapa la orina (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -899,283 +899,292 @@
     <t>Población según si se le escapa la orina (incontinencia) en 2023 (Tasa respuesta: 31,24%)</t>
   </si>
   <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>83,5%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
   </si>
   <si>
     <t>5,82%</t>
   </si>
   <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
   </si>
   <si>
     <t>92,85%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>97,04%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
   </si>
   <si>
     <t>5,4%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>93,93%</t>
   </si>
   <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
   </si>
   <si>
     <t>88,46%</t>
   </si>
   <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>87,81%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
 </sst>
 </file>
@@ -1587,7 +1596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D9B46C1-A9DE-426D-8C43-2367D378786F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D96922B-D53F-42C6-BBE9-D2CF6EFE9957}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1825,7 +1834,7 @@
         <v>521</v>
       </c>
       <c r="I6" s="7">
-        <v>529516</v>
+        <v>529515</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1876,7 +1885,7 @@
         <v>574</v>
       </c>
       <c r="I7" s="7">
-        <v>587750</v>
+        <v>587749</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -2542,7 +2551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D216E64D-93DC-4662-8418-87407892D571}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F32B22-3A52-4DF4-9560-7D8B3E40B0B1}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3497,7 +3506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB4F9C6A-1313-4555-B95B-9C8DD0D9EC1F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70482BFC-4681-4F49-A9AF-65B36742F29D}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3720,7 +3729,7 @@
         <v>341</v>
       </c>
       <c r="D6" s="7">
-        <v>313892</v>
+        <v>313891</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>213</v>
@@ -3771,7 +3780,7 @@
         <v>386</v>
       </c>
       <c r="D7" s="7">
-        <v>353902</v>
+        <v>353901</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4452,7 +4461,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A55F791-23CB-4B20-BB42-20DB93925106}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC77A25F-2B60-44FD-AD70-09F683527123}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4573,7 +4582,7 @@
         <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>13111</v>
+        <v>11955</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>286</v>
@@ -4588,7 +4597,7 @@
         <v>68</v>
       </c>
       <c r="I4" s="7">
-        <v>39803</v>
+        <v>34128</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>289</v>
@@ -4603,7 +4612,7 @@
         <v>91</v>
       </c>
       <c r="N4" s="7">
-        <v>52914</v>
+        <v>46083</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>292</v>
@@ -4612,7 +4621,7 @@
         <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,46 +4633,46 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>26369</v>
+        <v>24070</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>131</v>
       </c>
       <c r="I5" s="7">
-        <v>75949</v>
+        <v>67408</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>170</v>
       </c>
       <c r="N5" s="7">
-        <v>102318</v>
+        <v>91478</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>300</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>113</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,46 +4684,46 @@
         <v>365</v>
       </c>
       <c r="D6" s="7">
-        <v>247298</v>
+        <v>232615</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H6" s="7">
         <v>818</v>
       </c>
       <c r="I6" s="7">
-        <v>438474</v>
+        <v>398052</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>1183</v>
       </c>
       <c r="N6" s="7">
-        <v>685772</v>
+        <v>630667</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4726,7 +4735,7 @@
         <v>427</v>
       </c>
       <c r="D7" s="7">
-        <v>286778</v>
+        <v>268639</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -4741,7 +4750,7 @@
         <v>1017</v>
       </c>
       <c r="I7" s="7">
-        <v>554226</v>
+        <v>499589</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -4756,7 +4765,7 @@
         <v>1444</v>
       </c>
       <c r="N7" s="7">
-        <v>841004</v>
+        <v>768228</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -4779,46 +4788,46 @@
         <v>7</v>
       </c>
       <c r="D8" s="7">
-        <v>4686</v>
+        <v>4208</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>4789</v>
+        <v>4239</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>16</v>
       </c>
       <c r="N8" s="7">
-        <v>9476</v>
+        <v>8447</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>73</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,46 +4839,46 @@
         <v>35</v>
       </c>
       <c r="D9" s="7">
-        <v>24021</v>
+        <v>22379</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>23778</v>
+        <v>21287</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M9" s="7">
         <v>81</v>
       </c>
       <c r="N9" s="7">
-        <v>47799</v>
+        <v>43666</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4881,46 +4890,46 @@
         <v>384</v>
       </c>
       <c r="D10" s="7">
-        <v>265859</v>
+        <v>246670</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>329</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>474</v>
       </c>
       <c r="I10" s="7">
-        <v>357855</v>
+        <v>430214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>858</v>
       </c>
       <c r="N10" s="7">
-        <v>623713</v>
+        <v>676883</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,7 +4941,7 @@
         <v>426</v>
       </c>
       <c r="D11" s="7">
-        <v>294566</v>
+        <v>273257</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -4947,7 +4956,7 @@
         <v>529</v>
       </c>
       <c r="I11" s="7">
-        <v>386422</v>
+        <v>455739</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -4962,7 +4971,7 @@
         <v>955</v>
       </c>
       <c r="N11" s="7">
-        <v>680988</v>
+        <v>728996</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -4985,46 +4994,46 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>760</v>
+        <v>703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>735</v>
+        <v>651</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>1494</v>
+        <v>1354</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>169</v>
+        <v>339</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,46 +5045,46 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>6043</v>
+        <v>5672</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
       </c>
       <c r="I13" s="7">
-        <v>7832</v>
+        <v>7237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>25</v>
       </c>
       <c r="N13" s="7">
-        <v>13874</v>
+        <v>12909</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,46 +5096,46 @@
         <v>157</v>
       </c>
       <c r="D14" s="7">
-        <v>105184</v>
+        <v>98612</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>255</v>
+        <v>350</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="H14" s="7">
         <v>136</v>
       </c>
       <c r="I14" s="7">
-        <v>69679</v>
+        <v>63436</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>293</v>
       </c>
       <c r="N14" s="7">
-        <v>174862</v>
+        <v>162048</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>96</v>
+        <v>355</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,7 +5147,7 @@
         <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>111986</v>
+        <v>104986</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -5153,7 +5162,7 @@
         <v>152</v>
       </c>
       <c r="I15" s="7">
-        <v>78245</v>
+        <v>71325</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -5168,7 +5177,7 @@
         <v>320</v>
       </c>
       <c r="N15" s="7">
-        <v>190231</v>
+        <v>176311</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -5191,10 +5200,10 @@
         <v>31</v>
       </c>
       <c r="D16" s="7">
-        <v>18557</v>
+        <v>16865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>133</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>359</v>
@@ -5206,7 +5215,7 @@
         <v>78</v>
       </c>
       <c r="I16" s="7">
-        <v>45327</v>
+        <v>39019</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>361</v>
@@ -5215,22 +5224,22 @@
         <v>362</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>178</v>
+        <v>28</v>
       </c>
       <c r="M16" s="7">
         <v>109</v>
       </c>
       <c r="N16" s="7">
-        <v>63884</v>
+        <v>55884</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>262</v>
+        <v>364</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>286</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,13 +5251,13 @@
         <v>84</v>
       </c>
       <c r="D17" s="7">
-        <v>56433</v>
+        <v>52121</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>364</v>
+        <v>177</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>365</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>366</v>
@@ -5257,31 +5266,31 @@
         <v>192</v>
       </c>
       <c r="I17" s="7">
-        <v>107558</v>
+        <v>95932</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>367</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>275</v>
+        <v>368</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M17" s="7">
         <v>276</v>
       </c>
       <c r="N17" s="7">
-        <v>163991</v>
+        <v>148053</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>275</v>
+        <v>371</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5293,46 +5302,46 @@
         <v>906</v>
       </c>
       <c r="D18" s="7">
-        <v>618340</v>
+        <v>577896</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="H18" s="7">
         <v>1428</v>
       </c>
       <c r="I18" s="7">
-        <v>866008</v>
+        <v>891702</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M18" s="7">
         <v>2334</v>
       </c>
       <c r="N18" s="7">
-        <v>1484348</v>
+        <v>1469598</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>146</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,7 +5353,7 @@
         <v>1021</v>
       </c>
       <c r="D19" s="7">
-        <v>693330</v>
+        <v>646882</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -5359,7 +5368,7 @@
         <v>1698</v>
       </c>
       <c r="I19" s="7">
-        <v>1018893</v>
+        <v>1026653</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -5374,7 +5383,7 @@
         <v>2719</v>
       </c>
       <c r="N19" s="7">
-        <v>1712223</v>
+        <v>1673535</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
